--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.630668563767151</v>
+        <v>0.704056</v>
       </c>
       <c r="N2">
-        <v>0.630668563767151</v>
+        <v>2.112168</v>
       </c>
       <c r="O2">
-        <v>0.05906291470494952</v>
+        <v>0.06182348620901491</v>
       </c>
       <c r="P2">
-        <v>0.05906291470494952</v>
+        <v>0.0618234862090149</v>
       </c>
       <c r="Q2">
-        <v>0.5285734502293485</v>
+        <v>0.7077476002933333</v>
       </c>
       <c r="R2">
-        <v>0.5285734502293485</v>
+        <v>6.369728402639999</v>
       </c>
       <c r="S2">
-        <v>0.003805152371586389</v>
+        <v>0.004466669147008366</v>
       </c>
       <c r="T2">
-        <v>0.003805152371586389</v>
+        <v>0.004466669147008365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.55612946688399</v>
+        <v>8.646516666666667</v>
       </c>
       <c r="N3">
-        <v>8.55612946688399</v>
+        <v>25.93955</v>
       </c>
       <c r="O3">
-        <v>0.8012924282898846</v>
+        <v>0.759254667097055</v>
       </c>
       <c r="P3">
-        <v>0.8012924282898846</v>
+        <v>0.759254667097055</v>
       </c>
       <c r="Q3">
-        <v>7.171029495913854</v>
+        <v>8.691853235722222</v>
       </c>
       <c r="R3">
-        <v>7.171029495913854</v>
+        <v>78.22667912149998</v>
       </c>
       <c r="S3">
-        <v>0.0516235915391754</v>
+        <v>0.0548551950755247</v>
       </c>
       <c r="T3">
-        <v>0.0516235915391754</v>
+        <v>0.05485519507552469</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.49111325966824</v>
+        <v>0.4191446666666667</v>
       </c>
       <c r="N4">
-        <v>1.49111325966824</v>
+        <v>1.257434</v>
       </c>
       <c r="O4">
-        <v>0.1396446570051661</v>
+        <v>0.03680528895322079</v>
       </c>
       <c r="P4">
-        <v>0.1396446570051661</v>
+        <v>0.03680528895322079</v>
       </c>
       <c r="Q4">
-        <v>1.249725966421516</v>
+        <v>0.4213423818688888</v>
       </c>
       <c r="R4">
-        <v>1.249725966421516</v>
+        <v>3.792081436819999</v>
       </c>
       <c r="S4">
-        <v>0.008996663988512003</v>
+        <v>0.002659135851030467</v>
       </c>
       <c r="T4">
-        <v>0.008996663988512003</v>
+        <v>0.002659135851030466</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1160701072289</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>10.1160701072289</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.630668563767151</v>
+        <v>1.618446666666667</v>
       </c>
       <c r="N5">
-        <v>0.630668563767151</v>
+        <v>4.85534</v>
       </c>
       <c r="O5">
-        <v>0.05906291470494952</v>
+        <v>0.1421165577407093</v>
       </c>
       <c r="P5">
-        <v>0.05906291470494952</v>
+        <v>0.1421165577407092</v>
       </c>
       <c r="Q5">
-        <v>6.379887405493859</v>
+        <v>1.626932722022222</v>
       </c>
       <c r="R5">
-        <v>6.379887405493859</v>
+        <v>14.6423944982</v>
       </c>
       <c r="S5">
-        <v>0.04592823131947985</v>
+        <v>0.01026774261149473</v>
       </c>
       <c r="T5">
-        <v>0.04592823131947985</v>
+        <v>0.01026774261149473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.55612946688399</v>
+        <v>0.704056</v>
       </c>
       <c r="N6">
-        <v>8.55612946688399</v>
+        <v>2.112168</v>
       </c>
       <c r="O6">
-        <v>0.8012924282898846</v>
+        <v>0.06182348620901491</v>
       </c>
       <c r="P6">
-        <v>0.8012924282898846</v>
+        <v>0.0618234862090149</v>
       </c>
       <c r="Q6">
-        <v>86.55440553352547</v>
+        <v>7.223501441669334</v>
       </c>
       <c r="R6">
-        <v>86.55440553352547</v>
+        <v>65.011512975024</v>
       </c>
       <c r="S6">
-        <v>0.6230973223196096</v>
+        <v>0.04558827329050965</v>
       </c>
       <c r="T6">
-        <v>0.6230973223196096</v>
+        <v>0.04558827329050964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.49111325966824</v>
+        <v>8.646516666666667</v>
       </c>
       <c r="N7">
-        <v>1.49111325966824</v>
+        <v>25.93955</v>
       </c>
       <c r="O7">
-        <v>0.1396446570051661</v>
+        <v>0.759254667097055</v>
       </c>
       <c r="P7">
-        <v>0.1396446570051661</v>
+        <v>0.759254667097055</v>
       </c>
       <c r="Q7">
-        <v>15.08420627262253</v>
+        <v>88.71187179298889</v>
       </c>
       <c r="R7">
-        <v>15.08420627262253</v>
+        <v>798.4068461369</v>
       </c>
       <c r="S7">
-        <v>0.108589834103213</v>
+        <v>0.5598699035459488</v>
       </c>
       <c r="T7">
-        <v>0.108589834103213</v>
+        <v>0.5598699035459487</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.630668563767151</v>
+        <v>0.4191446666666667</v>
       </c>
       <c r="N8">
-        <v>0.630668563767151</v>
+        <v>1.257434</v>
       </c>
       <c r="O8">
-        <v>0.05906291470494952</v>
+        <v>0.03680528895322079</v>
       </c>
       <c r="P8">
-        <v>0.05906291470494952</v>
+        <v>0.03680528895322079</v>
       </c>
       <c r="Q8">
-        <v>0.2256842266040337</v>
+        <v>4.300356937423556</v>
       </c>
       <c r="R8">
-        <v>0.2256842266040337</v>
+        <v>38.703212436812</v>
       </c>
       <c r="S8">
-        <v>0.001624680296975493</v>
+        <v>0.02714000251721393</v>
       </c>
       <c r="T8">
-        <v>0.001624680296975493</v>
+        <v>0.02714000251721392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.55612946688399</v>
+        <v>1.618446666666667</v>
       </c>
       <c r="N9">
-        <v>8.55612946688399</v>
+        <v>4.85534</v>
       </c>
       <c r="O9">
-        <v>0.8012924282898846</v>
+        <v>0.1421165577407093</v>
       </c>
       <c r="P9">
-        <v>0.8012924282898846</v>
+        <v>0.1421165577407092</v>
       </c>
       <c r="Q9">
-        <v>3.061803889389094</v>
+        <v>16.60500276956889</v>
       </c>
       <c r="R9">
-        <v>3.061803889389094</v>
+        <v>149.44502492612</v>
       </c>
       <c r="S9">
-        <v>0.02204164875474945</v>
+        <v>0.1047959096238288</v>
       </c>
       <c r="T9">
-        <v>0.02204164875474945</v>
+        <v>0.1047959096238287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.49111325966824</v>
+        <v>0.704056</v>
       </c>
       <c r="N10">
-        <v>1.49111325966824</v>
+        <v>2.112168</v>
       </c>
       <c r="O10">
-        <v>0.1396446570051661</v>
+        <v>0.06182348620901491</v>
       </c>
       <c r="P10">
-        <v>0.1396446570051661</v>
+        <v>0.0618234862090149</v>
       </c>
       <c r="Q10">
-        <v>0.5335936530229423</v>
+        <v>0.270269497</v>
       </c>
       <c r="R10">
-        <v>0.5335936530229423</v>
+        <v>2.432425473</v>
       </c>
       <c r="S10">
-        <v>0.003841292356592444</v>
+        <v>0.001705699070017379</v>
       </c>
       <c r="T10">
-        <v>0.003841292356592444</v>
+        <v>0.001705699070017379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.630668563767151</v>
+        <v>8.646516666666667</v>
       </c>
       <c r="N11">
-        <v>0.630668563767151</v>
+        <v>25.93955</v>
       </c>
       <c r="O11">
-        <v>0.05906291470494952</v>
+        <v>0.759254667097055</v>
       </c>
       <c r="P11">
-        <v>0.05906291470494952</v>
+        <v>0.759254667097055</v>
       </c>
       <c r="Q11">
-        <v>1.070280275068233</v>
+        <v>3.319181585416667</v>
       </c>
       <c r="R11">
-        <v>1.070280275068233</v>
+        <v>29.87263426875001</v>
       </c>
       <c r="S11">
-        <v>0.007704850716907789</v>
+        <v>0.0209477022242877</v>
       </c>
       <c r="T11">
-        <v>0.007704850716907789</v>
+        <v>0.0209477022242877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>8.55612946688399</v>
+        <v>0.4191446666666667</v>
       </c>
       <c r="N12">
-        <v>8.55612946688399</v>
+        <v>1.257434</v>
       </c>
       <c r="O12">
-        <v>0.8012924282898846</v>
+        <v>0.03680528895322079</v>
       </c>
       <c r="P12">
-        <v>0.8012924282898846</v>
+        <v>0.03680528895322079</v>
       </c>
       <c r="Q12">
-        <v>14.52023634194812</v>
+        <v>0.1608991589166667</v>
       </c>
       <c r="R12">
-        <v>14.52023634194812</v>
+        <v>1.44809243025</v>
       </c>
       <c r="S12">
-        <v>0.1045298656763502</v>
+        <v>0.001015451424511797</v>
       </c>
       <c r="T12">
-        <v>0.1045298656763502</v>
+        <v>0.001015451424511797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.49111325966824</v>
+        <v>1.618446666666667</v>
       </c>
       <c r="N13">
-        <v>1.49111325966824</v>
+        <v>4.85534</v>
       </c>
       <c r="O13">
-        <v>0.1396446570051661</v>
+        <v>0.1421165577407093</v>
       </c>
       <c r="P13">
-        <v>0.1396446570051661</v>
+        <v>0.1421165577407092</v>
       </c>
       <c r="Q13">
-        <v>2.530503661357123</v>
+        <v>0.6212812141666667</v>
       </c>
       <c r="R13">
-        <v>2.530503661357123</v>
+        <v>5.591530927500001</v>
       </c>
       <c r="S13">
-        <v>0.0182168665568486</v>
+        <v>0.00392097073841578</v>
       </c>
       <c r="T13">
-        <v>0.0182168665568486</v>
+        <v>0.003920970738415779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.264687</v>
+      </c>
+      <c r="H14">
+        <v>6.794061</v>
+      </c>
+      <c r="I14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.704056</v>
+      </c>
+      <c r="N14">
+        <v>2.112168</v>
+      </c>
+      <c r="O14">
+        <v>0.06182348620901491</v>
+      </c>
+      <c r="P14">
+        <v>0.0618234862090149</v>
+      </c>
+      <c r="Q14">
+        <v>1.594466470472</v>
+      </c>
+      <c r="R14">
+        <v>14.350198234248</v>
+      </c>
+      <c r="S14">
+        <v>0.01006284470147951</v>
+      </c>
+      <c r="T14">
+        <v>0.01006284470147951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.264687</v>
+      </c>
+      <c r="H15">
+        <v>6.794061</v>
+      </c>
+      <c r="I15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.646516666666667</v>
+      </c>
+      <c r="N15">
+        <v>25.93955</v>
+      </c>
+      <c r="O15">
+        <v>0.759254667097055</v>
+      </c>
+      <c r="P15">
+        <v>0.759254667097055</v>
+      </c>
+      <c r="Q15">
+        <v>19.58165389028333</v>
+      </c>
+      <c r="R15">
+        <v>176.23488501255</v>
+      </c>
+      <c r="S15">
+        <v>0.1235818662512939</v>
+      </c>
+      <c r="T15">
+        <v>0.1235818662512939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.264687</v>
+      </c>
+      <c r="H16">
+        <v>6.794061</v>
+      </c>
+      <c r="I16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4191446666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.257434</v>
+      </c>
+      <c r="O16">
+        <v>0.03680528895322079</v>
+      </c>
+      <c r="P16">
+        <v>0.03680528895322079</v>
+      </c>
+      <c r="Q16">
+        <v>0.9492314777193332</v>
+      </c>
+      <c r="R16">
+        <v>8.543083299474</v>
+      </c>
+      <c r="S16">
+        <v>0.005990699160464599</v>
+      </c>
+      <c r="T16">
+        <v>0.005990699160464597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.264687</v>
+      </c>
+      <c r="H17">
+        <v>6.794061</v>
+      </c>
+      <c r="I17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.618446666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.85534</v>
+      </c>
+      <c r="O17">
+        <v>0.1421165577407093</v>
+      </c>
+      <c r="P17">
+        <v>0.1421165577407092</v>
+      </c>
+      <c r="Q17">
+        <v>3.665275126193333</v>
+      </c>
+      <c r="R17">
+        <v>32.98747613574</v>
+      </c>
+      <c r="S17">
+        <v>0.02313193476697002</v>
+      </c>
+      <c r="T17">
+        <v>0.02313193476697002</v>
       </c>
     </row>
   </sheetData>
